--- a/convolucional.xlsx
+++ b/convolucional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliga\OneDrive\Documentos\GitHub\INTELIGENCIAARTIFICIAL-ALCARAZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A701A3-9BFA-4012-A3CB-B122348E3FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54852D5-2F0F-400E-A984-6C90343652C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E2F4AB31-6AB1-42B1-BF1C-049B3C3C7798}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +62,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,10 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93537B3A-6600-41B7-8495-2B1BA1A6E807}">
-  <dimension ref="F4:Q15"/>
+  <dimension ref="F4:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="4" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:17">
       <c r="F4" s="2">
         <v>0</v>
       </c>
@@ -450,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:17">
       <c r="F5" s="2">
         <v>0</v>
       </c>
@@ -470,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:17">
       <c r="F6" s="2">
         <v>0</v>
       </c>
@@ -500,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:17">
       <c r="F7" s="2">
         <v>0</v>
       </c>
@@ -529,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:17">
       <c r="F8" s="2">
         <v>0</v>
       </c>
@@ -558,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:17">
       <c r="F9" s="2">
         <v>0</v>
       </c>
@@ -578,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:17">
       <c r="F10" s="2">
         <v>0</v>
       </c>
@@ -598,14 +605,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="G15">
+    <row r="15" spans="6:17">
+      <c r="G15" s="3">
         <f>F4*1/9+G4*1/9+H4*1/9+F5*1/9+G5*1/9+H5*1/9+F6*1/9+G6*1/9+H6</f>
         <v>135.11111111111111</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <f>(G4+H4+I4+G5+H5+I5+G6+H6+I6)/9</f>
         <v>27.555555555555557</v>
+      </c>
+      <c r="I15" s="3">
+        <f>(H4+I4+J4+H5+I5+J5+H6+I6+J6)/9</f>
+        <v>43.555555555555557</v>
+      </c>
+      <c r="J15" s="3">
+        <f>(I4+J4+K4+I5+J5+K5+I6+J6+K6)/9</f>
+        <v>26.888888888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="6:17">
+      <c r="G16" s="3">
+        <f>(F5+G5+H5+F6+G6+H6+F7+G7+H7)/9</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="H16" s="3">
+        <f>(G5+H5+I5+G6+H6+I6+G7+H7+I7)/9</f>
+        <v>31.444444444444443</v>
+      </c>
+      <c r="I16" s="3">
+        <f>(H5+I5+J5+H6+I6+J6+H7+I7+J7)/9</f>
+        <v>47.888888888888886</v>
+      </c>
+      <c r="J16" s="3">
+        <f>(I5+J5+K5+I6+J6+K6+I7+J7+K7)/9</f>
+        <v>29.888888888888889</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="3">
+        <f>(F6+G6+H6+F7+G7+H7+F8+G8+H8)/9</f>
+        <v>22.555555555555557</v>
+      </c>
+      <c r="H17" s="3">
+        <f>(G6+H6+I6+G7+H7+I7+G8+H8+I8)/9</f>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="I17" s="4">
+        <f>(H6+I6+J6+H7+I7+J7+H8+I8+J8)/9</f>
+        <v>39.333333333333336</v>
+      </c>
+      <c r="J17" s="3">
+        <f>(I6+J6+K6+I7+J7+K7+I8+J8+K8)/9</f>
+        <v>22.111111111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" s="3">
+        <f>(F7+G7+H7+F8+G8+H8+F9+G9+H9)/9</f>
+        <v>10.555555555555555</v>
+      </c>
+      <c r="H18" s="3">
+        <f>(G7+H7+I7+G8+H8+I8+G9+H9+I9)/9</f>
+        <v>16.111111111111111</v>
+      </c>
+      <c r="I18" s="3">
+        <f>(H7+I7+J7+H8+I8+J8+H9+I9+J9)/9</f>
+        <v>16.222222222222221</v>
+      </c>
+      <c r="J18" s="3">
+        <f>(I7+J7+K7+I8+J8+K8+I9+J9+K9)/9</f>
+        <v>11.333333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10">
+      <c r="G19" s="4">
+        <f>(F8+G8+H8+F9+G9+H9+F10+G10+H10)/9</f>
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="H19" s="3">
+        <f>(G8+H8+I8+G9+H9+I9+G10+H10+I10)/9</f>
+        <v>12.222222222222221</v>
+      </c>
+      <c r="I19" s="3">
+        <f>(H8+I8+J8+H9+I9+J9+H10+I10+J10)/9</f>
+        <v>11.888888888888889</v>
+      </c>
+      <c r="J19" s="3">
+        <f>(I8+J8+K8+I9+J9+K9+I10+J10+K10)/9</f>
+        <v>8.3333333333333339</v>
       </c>
     </row>
   </sheetData>
